--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3343.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3343.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180388053596687</v>
+        <v>1.208510756492615</v>
       </c>
       <c r="B1">
-        <v>2.822216806282821</v>
+        <v>3.673158168792725</v>
       </c>
       <c r="C1">
-        <v>7.686969393956631</v>
+        <v>3.325173377990723</v>
       </c>
       <c r="D1">
-        <v>2.118492112668334</v>
+        <v>2.632070064544678</v>
       </c>
       <c r="E1">
-        <v>1.19940474930276</v>
+        <v>1.213170051574707</v>
       </c>
     </row>
   </sheetData>
